--- a/Excel/CFA EXCEL.xlsx
+++ b/Excel/CFA EXCEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNT\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -634,11 +634,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,9 +692,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,6 +802,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1088,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -1142,152 +1167,152 @@
         <f>IF(AND(B2&gt;=35,C2&gt;=35,D2&gt;=35,E2&gt;=40,F2&gt;=35), "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="J2" s="17" t="str">
-        <f>IF(H2&gt;=60, "FIRST",IF(AND( H2&lt;60,H2&gt;=45), "SECOND",IF(AND(H2&gt;=35), "THIRD", "***")))</f>
+      <c r="J2" s="24" t="str">
+        <f t="shared" ref="J2:J5" si="0">IF(AND(H2&gt;=60,I2="PASS"),"FIRST",IF(AND(H2&lt;60,H2&gt;=45,I2="PASS"),"SECOND",IF(AND(H2&gt;=35,I2="PASS"),"THIRD","***")))</f>
         <v>FIRST</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>78</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>34</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>64</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>67</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>76</v>
       </c>
-      <c r="G3" s="20">
-        <f t="shared" ref="G3:G6" si="0">SUM(B3:F3)</f>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G6" si="1">SUM(B3:F3)</f>
         <v>319</v>
       </c>
-      <c r="H3" s="20">
-        <f t="shared" ref="H3:H6" si="1">G3/5</f>
+      <c r="H3" s="19">
+        <f t="shared" ref="H3:H6" si="2">G3/5</f>
         <v>63.8</v>
       </c>
-      <c r="I3" s="20" t="str">
-        <f t="shared" ref="I3:I6" si="2">IF(AND(B3&gt;=35,C3&gt;=35,D3&gt;=35,E3&gt;=40,F3&gt;=35), "PASS", "FAIL")</f>
+      <c r="I3" s="19" t="str">
+        <f t="shared" ref="I3:I6" si="3">IF(AND(B3&gt;=35,C3&gt;=35,D3&gt;=35,E3&gt;=40,F3&gt;=35), "PASS", "FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J3" s="21" t="str">
-        <f t="shared" ref="J3:J6" si="3">IF(H3&gt;=60, "FIRST",IF(AND( H3&lt;60,H3&gt;=45), "SECOND",IF(AND(H3&gt;=35), "THIRD", "***")))</f>
+      <c r="J3" s="24" t="str">
+        <f>IF(AND(H3&gt;=60,I3="PASS"),"FIRST",IF(AND(H3&lt;60,H3&gt;=45,I3="PASS"),"SECOND",IF(AND(H3&gt;=35,I3="PASS"),"THIRD","***")))</f>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18">
+        <v>87</v>
+      </c>
+      <c r="C4" s="18">
+        <v>56</v>
+      </c>
+      <c r="D4" s="18">
+        <v>67</v>
+      </c>
+      <c r="E4" s="18">
+        <v>65</v>
+      </c>
+      <c r="F4" s="18">
+        <v>61</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="2"/>
+        <v>67.2</v>
+      </c>
+      <c r="I4" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="J4" s="24" t="str">
+        <f t="shared" si="0"/>
         <v>FIRST</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="19">
-        <v>87</v>
-      </c>
-      <c r="C4" s="19">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="18">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18">
+        <v>64</v>
+      </c>
+      <c r="D5" s="18">
         <v>56</v>
       </c>
-      <c r="D4" s="19">
-        <v>67</v>
-      </c>
-      <c r="E4" s="19">
-        <v>65</v>
-      </c>
-      <c r="F4" s="19">
-        <v>61</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="E5" s="18">
+        <v>72</v>
+      </c>
+      <c r="F5" s="18">
+        <v>82</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>PASS</v>
+      </c>
+      <c r="J5" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="H4" s="20">
+        <v>FIRST</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22">
+        <v>46</v>
+      </c>
+      <c r="D6" s="22">
+        <v>63</v>
+      </c>
+      <c r="E6" s="22">
+        <v>58</v>
+      </c>
+      <c r="F6" s="22">
+        <v>56</v>
+      </c>
+      <c r="G6" s="23">
         <f t="shared" si="1"/>
-        <v>67.2</v>
-      </c>
-      <c r="I4" s="20" t="str">
+        <v>302</v>
+      </c>
+      <c r="H6" s="23">
         <f t="shared" si="2"/>
+        <v>60.4</v>
+      </c>
+      <c r="I6" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>PASS</v>
       </c>
-      <c r="J4" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>FIRST</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="19">
-        <v>76</v>
-      </c>
-      <c r="C5" s="19">
-        <v>64</v>
-      </c>
-      <c r="D5" s="19">
-        <v>56</v>
-      </c>
-      <c r="E5" s="19">
-        <v>72</v>
-      </c>
-      <c r="F5" s="19">
-        <v>82</v>
-      </c>
-      <c r="G5" s="20">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="H5" s="20">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="I5" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>PASS</v>
-      </c>
-      <c r="J5" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>FIRST</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23">
-        <v>79</v>
-      </c>
-      <c r="C6" s="23">
-        <v>46</v>
-      </c>
-      <c r="D6" s="23">
-        <v>63</v>
-      </c>
-      <c r="E6" s="23">
-        <v>58</v>
-      </c>
-      <c r="F6" s="23">
-        <v>56</v>
-      </c>
-      <c r="G6" s="24">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="H6" s="24">
-        <f t="shared" si="1"/>
-        <v>60.4</v>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>PASS</v>
-      </c>
-      <c r="J6" s="25" t="str">
-        <f t="shared" si="3"/>
+      <c r="J6" s="24" t="str">
+        <f>IF(AND(H6&gt;=60,I6="PASS"),"FIRST",IF(AND(H6&lt;60,H6&gt;=45,I6="PASS"),"SECOND",IF(AND(H6&gt;=35,I6="PASS"),"THIRD","***")))</f>
         <v>FIRST</v>
       </c>
     </row>
@@ -1303,7 +1328,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1349,119 +1374,119 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>12000</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <f>IF(E2&gt;=6000, 15/100*E2,0)</f>
         <v>1800</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <f>IF(D2="MANAGER", 10/100*E2, 0)</f>
         <v>1200</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <f>IF(C2="KTM", 0, 5/100*E2)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <f>SUM(E2:H2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>11500</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F4" si="0">IF(E3&gt;=6000, 15/100*E3,0)</f>
         <v>1725</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f t="shared" ref="G3:G4" si="1">IF(D3="MANAGER", 10/100*E3, 0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H4" si="2">IF(C3="KTM", 0, 5/100*E3)</f>
         <v>575</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I4" si="3">SUM(E3:H3)</f>
         <v>13800</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>10000</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="24">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="23">
         <f>MAX(E2:E4)</f>
         <v>12000</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1476,8 +1501,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1522,44 +1547,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>22</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>25</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>78</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>32</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>77</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <f>SUM(A2:E2)</f>
         <v>234</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <f>AVERAGE(A2:E2)</f>
         <v>46.8</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <f>F2/5</f>
         <v>46.8</v>
       </c>
-      <c r="I2" s="34" t="str">
+      <c r="I2" s="33" t="str">
         <f>IF(AND(B2&gt;=35,C2&gt;=35,D2&gt;=35,E2&gt;=35),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="J2" s="35" t="str">
+      <c r="J2" s="34" t="str">
         <f>IF(H2&gt;=60,"FIRST",IF(H2&gt;=50,"SECOND",IF(H2&gt;=35,"THIRD","***")))</f>
         <v>THIRD</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>43</v>
       </c>
       <c r="B3" s="3">
@@ -1574,29 +1599,29 @@
       <c r="E3" s="3">
         <v>87</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <f t="shared" ref="F3:F6" si="0">SUM(A3:E3)</f>
         <v>359</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <f t="shared" ref="G3:G6" si="1">AVERAGE(A3:E3)</f>
         <v>71.8</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <f t="shared" ref="H3:H6" si="2">F3/5</f>
         <v>71.8</v>
       </c>
-      <c r="I3" s="34" t="str">
+      <c r="I3" s="33" t="str">
         <f t="shared" ref="I3:I6" si="3">IF(AND(B3&gt;=35,C3&gt;=35,D3&gt;=35,E3&gt;=35),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="J3" s="35" t="str">
+      <c r="J3" s="34" t="str">
         <f t="shared" ref="J3:J6" si="4">IF(H3&gt;=60,"FIRST",IF(H3&gt;=50,"SECOND",IF(H3&gt;=35,"THIRD","***")))</f>
         <v>FIRST</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>55</v>
       </c>
       <c r="B4" s="3">
@@ -1611,29 +1636,29 @@
       <c r="E4" s="3">
         <v>90</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <f t="shared" si="0"/>
         <v>388</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <f t="shared" si="1"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <f t="shared" si="2"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="I4" s="34" t="str">
+      <c r="I4" s="33" t="str">
         <f t="shared" si="3"/>
         <v>PASS</v>
       </c>
-      <c r="J4" s="35" t="str">
+      <c r="J4" s="34" t="str">
         <f t="shared" si="4"/>
         <v>FIRST</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>65</v>
       </c>
       <c r="B5" s="3">
@@ -1648,23 +1673,23 @@
       <c r="E5" s="3">
         <v>99</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <f t="shared" si="2"/>
         <v>75.2</v>
       </c>
-      <c r="I5" s="34" t="str">
+      <c r="I5" s="33" t="str">
         <f t="shared" si="3"/>
         <v>PASS</v>
       </c>
-      <c r="J5" s="35" t="str">
+      <c r="J5" s="34" t="str">
         <f t="shared" si="4"/>
         <v>FIRST</v>
       </c>
@@ -1673,35 +1698,35 @@
       <c r="A6" s="11">
         <v>83</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>33</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>76</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>55</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>33</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="63">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="63">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="63">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="I6" s="34" t="str">
+      <c r="I6" s="63" t="str">
         <f t="shared" si="3"/>
         <v>FAIL</v>
       </c>
-      <c r="J6" s="35" t="str">
+      <c r="J6" s="64" t="str">
         <f t="shared" si="4"/>
         <v>SECOND</v>
       </c>
@@ -1717,7 +1742,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,44 +1789,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>22</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>25</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>78</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>32</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>77</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <f>MAX(A2:E2)</f>
         <v>78</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <f>MIN(A2:E2)</f>
         <v>22</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <f>AVERAGE(A2:E2)</f>
         <v>46.8</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="33">
         <f>COUNTIF(A2:E2,"&lt;35")</f>
         <v>3</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="34">
         <f>F2-G2</f>
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>43</v>
       </c>
       <c r="B3" s="3">
@@ -1816,29 +1841,29 @@
       <c r="E3" s="3">
         <v>87</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <f t="shared" ref="F3:F6" si="0">MAX(A3:E3)</f>
         <v>87</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <f t="shared" ref="G3:G6" si="1">MIN(A3:E3)</f>
         <v>43</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <f t="shared" ref="H3:H6" si="2">AVERAGE(A3:E3)</f>
         <v>71.8</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="33">
         <f t="shared" ref="I3:I6" si="3">COUNTIF(A3:E3,"&lt;35")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="34">
         <f t="shared" ref="J3:J6" si="4">F3-G3</f>
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>55</v>
       </c>
       <c r="B4" s="3">
@@ -1853,29 +1878,29 @@
       <c r="E4" s="3">
         <v>90</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <f t="shared" si="2"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>65</v>
       </c>
       <c r="B5" s="3">
@@ -1890,23 +1915,23 @@
       <c r="E5" s="3">
         <v>99</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <f t="shared" si="2"/>
         <v>75.2</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
@@ -1915,35 +1940,35 @@
       <c r="A6" s="11">
         <v>83</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>33</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>76</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>55</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>33</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="63">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="63">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="63">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="63">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="64">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -1975,21 +2000,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="35">
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2021,7 +2046,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="35">
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2056,7 +2081,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2091,7 +2116,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2126,7 +2151,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2161,7 +2186,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2196,7 +2221,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>11</v>
       </c>
       <c r="B8" s="9"/>
@@ -2210,7 +2235,7 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2250,7 +2275,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>13</v>
       </c>
       <c r="B10" s="9"/>
@@ -2264,13 +2289,13 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>0.06</v>
       </c>
       <c r="D11" s="3">
@@ -2303,18 +2328,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>15</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2345,29 +2370,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="40"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="9" t="s">
         <v>61</v>
       </c>
@@ -2377,10 +2402,10 @@
       <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2407,7 +2432,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2434,7 +2459,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2461,13 +2486,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>400000</v>
       </c>
       <c r="D6" s="9">
@@ -2488,32 +2513,32 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2552,31 +2577,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>40</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -2584,7 +2609,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="3">
@@ -2620,7 +2645,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="3">
@@ -2656,7 +2681,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="3">
@@ -2692,7 +2717,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="3">
@@ -2728,22 +2753,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>89</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>34</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>63</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>59</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>52</v>
       </c>
       <c r="G6" s="9">
@@ -2773,8 +2798,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2791,47 +2816,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="45" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="44"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2851,7 +2876,7 @@
         <f>IF(AND(D3="MARRIED",C3&lt;=350000),C3*1%, C3*10%)</f>
         <v>2500</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="44">
         <f>E3+F3</f>
         <v>5000</v>
       </c>
@@ -2861,7 +2886,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2870,7 +2895,7 @@
       <c r="C4" s="3">
         <v>350000</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="9">
@@ -2881,7 +2906,7 @@
         <f t="shared" ref="F4:F8" si="1">IF(AND(D4="MARRIED",C4&lt;=350000),C4*1%, C4*10%)</f>
         <v>35000</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <f t="shared" ref="G4:G8" si="2">E4+F4</f>
         <v>38500</v>
       </c>
@@ -2891,7 +2916,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2900,7 +2925,7 @@
       <c r="C5" s="3">
         <v>900000</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="9">
@@ -2911,7 +2936,7 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <f t="shared" si="2"/>
         <v>99000</v>
       </c>
@@ -2921,7 +2946,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2941,7 +2966,7 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <f t="shared" si="2"/>
         <v>44000</v>
       </c>
@@ -2951,7 +2976,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2971,7 +2996,7 @@
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f t="shared" si="2"/>
         <v>88000</v>
       </c>
@@ -2981,31 +3006,31 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>730000</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <f t="shared" si="0"/>
         <v>7300</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <f t="shared" si="1"/>
         <v>73000</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <f t="shared" si="2"/>
         <v>80300</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="42">
         <f t="shared" si="3"/>
         <v>649700</v>
       </c>
